--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3884,15 +3884,16 @@
   <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="150" customWidth="1"/>
-    <col min="3" max="7" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="160" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7755,15 +7756,16 @@
   <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="140" customWidth="1"/>
-    <col min="3" max="7" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="150" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
